--- a/xlsx/Firefox OS_intext.xlsx
+++ b/xlsx/Firefox OS_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Firefox OS</t>
+    <t>政策_政策_维基百科_Firefox OS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%BE%E8%AE%A1%E5%B8%88</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%87%BA%E7%89%88%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件出版週期</t>
+    <t>软件出版周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>智慧型手機</t>
+    <t>智慧型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>智慧型電視</t>
+    <t>智慧型电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AF%AD%E8%A8%80</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/MIPS%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>MIPS架構</t>
+    <t>MIPS架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%A0%B8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E6%A0%B8%E5%BF%83</t>
   </si>
   <si>
-    <t>單核心</t>
+    <t>单核心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E6%A0%B8%E5%BF%83</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%BD%A2%E4%BD%BF%E7%94%A8%E8%80%85%E4%BB%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>圖形使用者介面</t>
+    <t>图形使用者介面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原始碼</t>
+    <t>开放原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>行動作業系統</t>
+    <t>行动作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%81%94%E7%BD%91</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cache_manifest_in_HTML5</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%87%8C%E4%BA%9E%E6%96%AF%C2%B7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>安德里亞斯·加爾</t>
+    <t>安德里亚斯·加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E5%B9%B3%E8%87%BA</t>
   </si>
   <si>
-    <t>封閉平臺</t>
+    <t>封闭平台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%A0%81%E6%A8%99%E6%BA%96</t>
   </si>
   <si>
-    <t>網頁標準</t>
+    <t>网页标准</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ars_Technica</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%88%88%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>中興通訊</t>
+    <t>中兴通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B6%88%E8%B4%B9%E7%94%B5%E5%AD%90%E5%B1%95</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ZTE_Open</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BE%85%E9%82%A3</t>
   </si>
   <si>
-    <t>巴塞羅那</t>
+    <t>巴塞罗那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%8C%E5%8B%95%E9%80%9A%E8%A8%8A%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>世界行動通訊大會</t>
+    <t>世界行动通讯大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%B0%BC%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特尼哥羅</t>
+    <t>蒙特尼哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -365,31 +365,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>TCL集團</t>
+    <t>TCL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>鴻海科技</t>
+    <t>鸿海科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%9F%BA%E4%BA%9E</t>
   </si>
   <si>
-    <t>諾基亞</t>
+    <t>诺基亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%91%E8%8E%93%E6%B4%BE</t>
@@ -479,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>桌上型電腦</t>
+    <t>桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%95%E8%A8%8A%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>展訊通訊</t>
+    <t>展讯通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CES</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%99%B6%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>液晶電視</t>
+    <t>液晶电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%AB%94%E6%8A%BD%E8%B1%A1%E5%B1%A4</t>
   </si>
   <si>
-    <t>硬體抽象層</t>
+    <t>硬体抽象层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%89%88%E5%BC%95%E6%93%8E</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/Firefox_OS%E8%A3%9D%E7%BD%AE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Firefox OS裝置列表</t>
+    <t>Firefox OS装置列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Sony_Xperia_SP</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%AA%92%E9%AB%94%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放媒體聯盟</t>
+    <t>开放媒体联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Rust</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%95%86%E8%AC%80%E6%99%BA%E5%8F%B0%E7%81%A3%E5%88%86%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美商謀智台灣分公司</t>
+    <t>美商谋智台湾分公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla_Messaging</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%87%E7%88%BE%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>米切爾·貝克</t>
+    <t>米切尔·贝克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sheeri_Cabral</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%98%AD%E7%99%BB%C2%B7%E8%89%BE%E5%85%8B</t>
   </si>
   <si>
-    <t>布蘭登·艾克</t>
+    <t>布兰登·艾克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/John_Hammink</t>
@@ -1085,19 +1085,19 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla%E4%B9%8B%E6%9B%B8</t>
   </si>
   <si>
-    <t>Mozilla之書</t>
+    <t>Mozilla之书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E7%A2%BC%E5%A5%94%E9%A8%B0</t>
   </si>
   <si>
-    <t>代碼奔騰</t>
+    <t>代码奔腾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Mozilla公共許可證</t>
+    <t>Mozilla公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9C%A8%E5%9C%B0%E5%8C%96</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%BA%A6%E9%9B%B2OS</t>
   </si>
   <si>
-    <t>百度雲OS</t>
+    <t>百度云OS</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIUI</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/Windows_10%E8%A1%8C%E5%8B%95%E7%89%88</t>
   </si>
   <si>
-    <t>Windows 10行動版</t>
+    <t>Windows 10行动版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BlackBerry_OS</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/PlayStation_Portable%E7%B3%BB%E7%B5%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>PlayStation Portable系統軟體</t>
+    <t>PlayStation Portable系统软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PlayStation_Vita%E7%B3%BB%E7%BB%9F%E8%BD%AF%E4%BB%B6</t>
@@ -1517,19 +1517,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%BB%9F%E9%AB%94%E7%99%BC%E8%A1%8C%E5%B9%B3%E5%8F%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>行動軟體發行平台列表</t>
+    <t>行动软体发行平台列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%89%8B%E6%A9%9F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放手機聯盟</t>
+    <t>开放手机联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A7%BB%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>開放移動聯盟</t>
+    <t>开放移动联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mobile_application_development</t>
@@ -1583,19 +1583,19 @@
     <t>https://zh.wikipedia.org/wiki/GNU/Linux%E5%91%BD%E5%90%8D%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>GNU/Linux命名爭議</t>
+    <t>GNU/Linux命名争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E8%83%BD%E9%AE%91%E5%A7%86-%E6%89%98%E7%93%A6%E8%8C%B2%E8%BE%AF%E8%AB%96</t>
   </si>
   <si>
-    <t>塔能鮑姆-托瓦茲辯論</t>
+    <t>塔能鲍姆-托瓦兹辩论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E5%8F%91%E8%A1%8C%E7%89%88</t>
@@ -1697,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E7%9A%84%E6%8E%A1%E7%94%A8</t>
   </si>
   <si>
-    <t>Linux的採用</t>
+    <t>Linux的采用</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Criticism_of_Linux</t>
@@ -1709,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%A1%8C%E9%9D%A2Linux%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對桌面Linux的批評</t>
+    <t>对桌面Linux的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B5%8C%E5%85%A5%E5%BC%8FLinux</t>
@@ -1835,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%80%AB%C2%B7%E8%80%83%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>艾倫·考克斯</t>
+    <t>艾伦·考克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Allison_Randal</t>
@@ -1847,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%8E%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>安德魯·莫頓</t>
+    <t>安德鲁·莫顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Benjamin_Mako_Hill</t>
@@ -1877,13 +1877,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E7%B1%B3%E5%8B%92_(%E7%A8%8B%E5%BC%8F%E5%93%A1)</t>
   </si>
   <si>
-    <t>大衛·米勒 (程式員)</t>
+    <t>大卫·米勒 (程式员)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E9%9B%B7%E6%A0%BC%C2%B7%E5%85%8B%E7%BE%85%E5%93%88%E6%9B%BC</t>
   </si>
   <si>
-    <t>葛雷格·克羅哈曼</t>
+    <t>葛雷格·克罗哈曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%81%A9%C2%B7%E9%BB%98%E5%A4%9A%E5%85%8B</t>
